--- a/result1.xlsx
+++ b/result1.xlsx
@@ -490,31 +490,31 @@
         <v>180</v>
       </c>
       <c r="B2" t="n">
-        <v>140.5</v>
+        <v>140</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>17800</v>
+        <v>17765</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.286263797015736e-15</v>
       </c>
       <c r="F2" t="n">
         <v>1800</v>
       </c>
       <c r="G2" t="n">
-        <v>17308.25</v>
+        <v>17240</v>
       </c>
       <c r="H2" t="n">
-        <v>6.02220063480711e-14</v>
+        <v>6.858022075225178e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>1739.79125</v>
+        <v>1730.8828125</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="3">
@@ -522,31 +522,31 @@
         <v>180</v>
       </c>
       <c r="B3" t="n">
-        <v>140.5</v>
+        <v>140</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>17308.25</v>
+        <v>17275</v>
       </c>
       <c r="E3" t="n">
-        <v>6.02220063480711e-14</v>
+        <v>6.429395695523605e-14</v>
       </c>
       <c r="F3" t="n">
         <v>1800</v>
       </c>
       <c r="G3" t="n">
-        <v>16535.5</v>
+        <v>16505</v>
       </c>
       <c r="H3" t="n">
-        <v>1.548565877521828e-13</v>
+        <v>1.585917604895822e-13</v>
       </c>
       <c r="I3" t="n">
         <v>1651.32125</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="4">
@@ -554,31 +554,31 @@
         <v>180</v>
       </c>
       <c r="B4" t="n">
-        <v>140.5</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>17027.25</v>
+        <v>16995</v>
       </c>
       <c r="E4" t="n">
-        <v>9.463458140411173e-14</v>
+        <v>9.858406733136195e-14</v>
       </c>
       <c r="F4" t="n">
         <v>1800</v>
       </c>
       <c r="G4" t="n">
-        <v>16184.25</v>
+        <v>16155</v>
       </c>
       <c r="H4" t="n">
-        <v>1.978723065722336e-13</v>
+        <v>2.014543984597396e-13</v>
       </c>
       <c r="I4" t="n">
         <v>1623.06</v>
       </c>
       <c r="J4" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
